--- a/Shares/data/2020_2010_ClamOysterAllowables.xlsx
+++ b/Shares/data/2020_2010_ClamOysterAllowables.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Harvest Estimation\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\RStudio\intertidal\Shares\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7E9655-0E7D-4D30-9499-32C58737EEB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6772FA52-63CE-4A23-9B00-0847D0C64F4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25785" yWindow="555" windowWidth="24345" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
     <sheet name="Allowables" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Allowables!$B$1:$C$567</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Allowables!$A$1:$M$626</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1222,7 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -1599,11 +1599,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M626"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="567" topLeftCell="A568" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E591" sqref="E591"/>
+      <selection pane="bottomLeft" activeCell="D615" sqref="D615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16572,7 +16573,7 @@
       <c r="L508" s="33"/>
       <c r="M508" s="34"/>
     </row>
-    <row r="509" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>200060</v>
       </c>
@@ -18455,7 +18456,7 @@
         <v>2020</v>
       </c>
       <c r="D580" s="27" t="s">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="E580" s="27" t="s">
         <v>51</v>
@@ -19536,6 +19537,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M626" xr:uid="{B879BB39-2C17-4339-A047-BD5E5DBC778D}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2020"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M458">
     <sortCondition ref="C2:C458"/>
     <sortCondition ref="A2:A458"/>
@@ -19546,6 +19554,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010025AF7BE1E4E05544A0E1D8383ADA21EC" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="218d5bfd23c694712bf3248a69df0452">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43d3e67e-3a96-4068-a2b1-0742032475b2" xmlns:ns3="1b7d01fa-feb7-45e5-b217-dd86d3c24382" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e466878f61f414b91dde9aec6bf33444" ns2:_="" ns3:_="">
     <xsd:import namespace="43d3e67e-3a96-4068-a2b1-0742032475b2"/>
@@ -19742,15 +19759,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -19758,13 +19766,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6100154-A3C5-4149-834B-687F4B4FDF01}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AB8806E-4D1D-423C-AE8C-6E26F79A8D1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AB8806E-4D1D-423C-AE8C-6E26F79A8D1D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6100154-A3C5-4149-834B-687F4B4FDF01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43d3e67e-3a96-4068-a2b1-0742032475b2"/>
+    <ds:schemaRef ds:uri="1b7d01fa-feb7-45e5-b217-dd86d3c24382"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCADD847-A78C-4B1D-90D9-9BED47E435EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCADD847-A78C-4B1D-90D9-9BED47E435EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>